--- a/documentation/budget/effort_commitment.xlsx
+++ b/documentation/budget/effort_commitment.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nawa8\Documents\Professional development (2nd year)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD088CA-5D8D-4B54-AB87-C279B5E50A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="-7240" windowWidth="41140" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -174,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -562,127 +574,7 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,6 +1017,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1449,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
@@ -1467,12 +1367,12 @@
     <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16" thickBot="1">
+    <row r="4" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16" thickTop="1">
+    <row r="5" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,10 +1427,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1471,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16" thickBot="1">
+    <row r="11" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1622,12 +1522,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16" thickTop="1">
+    <row r="12" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1556,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -1671,7 +1571,7 @@
         <v>162.79999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:32">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
@@ -1715,7 +1615,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1">
+    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="30" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1772,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="2:32" s="31" customFormat="1">
+    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
         <v>29</v>
@@ -1922,7 +1822,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:32" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +1930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16" thickTop="1">
+    <row r="24" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2117,7 +2017,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="25" spans="2:32">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2204,7 +2104,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="26" spans="2:32">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,7 +2191,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2378,7 +2278,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2465,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2552,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16" thickBot="1">
+    <row r="33" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2900,10 +2800,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16" thickTop="1">
+    <row r="34" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +2900,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="3" customFormat="1">
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -3117,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3212,23 +3112,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3337,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3401,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="45">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
@@ -3415,216 +3315,216 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AF34:AF35 A32:B32 D32 AA32:XFD32">
-    <cfRule type="cellIs" dxfId="55" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="132" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="133" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="133" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="134" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD20">
-    <cfRule type="cellIs" dxfId="52" priority="130" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="130" operator="between">
       <formula>$K$10</formula>
       <formula>$K$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="131" operator="between">
       <formula>$K$9</formula>
       <formula>$K$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:Z37">
-    <cfRule type="cellIs" dxfId="50" priority="127" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="127" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="128" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="129" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 C25:C32 AA24:XFD24">
-    <cfRule type="cellIs" dxfId="47" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="124" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="125" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="126" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 D25 AA25:XFD25">
-    <cfRule type="cellIs" dxfId="44" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="121" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="122" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="123" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26 D26 AA26:XFD26">
-    <cfRule type="cellIs" dxfId="41" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="118" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="119" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="120" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 D31 AA31:XFD31">
-    <cfRule type="cellIs" dxfId="38" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="100" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="101" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="102" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 D27 AA27:XFD27">
-    <cfRule type="cellIs" dxfId="35" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="112" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="113" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="114" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 D28 AA28:XFD28">
-    <cfRule type="cellIs" dxfId="32" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="109" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="110" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="111" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 D29 AA29:XFD29">
-    <cfRule type="cellIs" dxfId="29" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="106" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="107" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="108" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30 D30 AA30:XFD30">
-    <cfRule type="cellIs" dxfId="26" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="103" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="104" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="105" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33 D33 AA33:XFD33">
-    <cfRule type="cellIs" dxfId="23" priority="97" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="97" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="98" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="99" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="20" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="94" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="95" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="96" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z27">
-    <cfRule type="cellIs" dxfId="17" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="82" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="83" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="84" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:Z33 E24:O27">
-    <cfRule type="cellIs" dxfId="8" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
   </dataValidations>
